--- a/CBS/Excel/LoginTestData_Mohan2222.xlsx
+++ b/CBS/Excel/LoginTestData_Mohan2222.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695" tabRatio="589" firstSheet="9" activeTab="15"/>
+    <workbookView windowWidth="16350" windowHeight="5940" tabRatio="589" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -7023,9 +7023,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="35">
@@ -7139,6 +7139,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -7155,7 +7178,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7169,31 +7214,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7208,7 +7238,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7223,7 +7253,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7232,36 +7262,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7282,7 +7282,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7294,43 +7390,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7342,55 +7444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7402,67 +7456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7492,6 +7492,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -7502,6 +7517,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7525,66 +7584,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7593,133 +7593,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7728,13 +7692,49 @@
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7826,10 +7826,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -7862,12 +7862,12 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
     <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
@@ -22054,7 +22054,7 @@
   <sheetPr/>
   <dimension ref="C5:Q196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P196" sqref="P196"/>
     </sheetView>
   </sheetViews>
@@ -27816,8 +27816,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
